--- a/Data/paper_score.xlsx
+++ b/Data/paper_score.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{979CB766-C750-44D7-ACA7-A182C889260B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3C7B79A-D4B4-41DF-8751-33D32B3F1813}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -608,15 +608,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBBC9656-9ABA-4334-911C-8FB51D6FDFAD}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="3" width="37.125" customWidth="1"/>
-    <col min="4" max="5" width="36.25" customWidth="1"/>
-    <col min="6" max="6" width="36" customWidth="1"/>
+    <col min="2" max="7" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
